--- a/spreadsheet/macrofree/azure_storage_checklist.es.xlsx
+++ b/spreadsheet/macrofree/azure_storage_checklist.es.xlsx
@@ -1069,12 +1069,12 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Tenga en cuenta la "Línea base de seguridad de Azure para el almacenamiento"</t>
+          <t>Considere la "línea base de seguridad de Azure para el almacenamiento"</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>Aplicación de las instrucciones del banco de pruebas de seguridad en la nube de Microsoft relacionadas con el almacenamiento</t>
+          <t>Aplicación de las instrucciones de la prueba comparativa de seguridad en la nube de Microsoft relacionadas con el almacenamiento</t>
         </is>
       </c>
       <c r="E8" s="21" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>De forma predeterminada, Azure Storage tiene una dirección IP pública y es accesible desde Internet. Los puntos de conexión privados permiten exponer de forma segura Azure Storage solo a los recursos de Azure Compute que necesitan acceso, lo que elimina la exposición a la Internet pública</t>
+          <t>De forma predeterminada, Azure Storage tiene una dirección IP pública y es accesible a través de Internet. Los puntos de conexión privados permiten exponer de forma segura Azure Storage solo a los recursos de Azure Compute que necesitan acceso, lo que elimina la exposición a la Internet pública</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, etcétera de auditoría, estén habilitados. Asegúrese de que no haya cuentas de almacenamiento antiguas con el modelo de implementación clásico en una suscripción</t>
+          <t>Las cuentas de almacenamiento recién creadas se crean mediante el modelo de implementación de ARM, de modo que RBAC, auditoría, etc. estén habilitados. Asegúrese de que no haya cuentas de almacenamiento antiguas con el modelo de implementación clásica en una suscripción</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>Considere la posibilidad de aplicar directivas de "retención legal" o "retención basada en tiempo" para los blobs, de modo que sea imposible eliminar el blob, el contenedor o la cuenta de almacenamiento. Tenga en cuenta que 'imposible' en realidad significa 'imposible'; una vez que una cuenta de almacenamiento contiene un blob inmutable, la única manera de "deshacerse" de esa cuenta de almacenamiento es cancelando la suscripción de Azure.</t>
+          <t>Considere la posibilidad de aplicar directivas de "retención legal" o "retención basada en el tiempo" para los blobs, de modo que sea imposible eliminar el blob, el contenedor o la cuenta de almacenamiento. Tenga en cuenta que 'imposible' en realidad significa 'imposible'; una vez que una cuenta de almacenamiento contiene un blob inmutable, la única manera de "deshacerse" de esa cuenta de almacenamiento es cancelar la suscripción de Azure.</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere la posibilidad de deshabilitar el acceso HTTP/80 no protegido a la cuenta de almacenamiento, de modo que todas las transferencias de datos estén cifradas, protegidas contra la integridad y el servidor esté autenticado. </t>
+          <t xml:space="preserve">Considere la posibilidad de deshabilitar el acceso HTTP/80 sin protección a la cuenta de almacenamiento, de modo que todas las transferencias de datos estén cifradas, protegidas contra la integridad y el servidor esté autenticado. </t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">. Al aplicar la versión más reciente de TLS, se rechazarán las solicitudes de los clientes que utilicen la versión anterior. </t>
+          <t xml:space="preserve">. Al aplicar la versión más reciente de TLS, se rechazará la solicitud de los clientes que utilicen la versión anterior. </t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Al asignar un rol a un usuario, grupo o aplicación, conceda a esa entidad de seguridad solo los permisos necesarios para que pueda realizar sus tareas. Limitar el acceso a los recursos ayuda a evitar el uso indebido no intencionado y malintencionado de los datos.</t>
+          <t>Al asignar un rol a un usuario, grupo o aplicación, conceda a esa entidad de seguridad solo los permisos necesarios para que realice sus tareas. Limitar el acceso a los recursos ayuda a evitar el uso indebido no intencionado y malintencionado de los datos.</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una SAS de delegación de usuarios está protegida con credenciales de Azure Active Directory (Azure AD) y también con los permisos especificados para la SAS. Una SAS de delegación de usuarios es análoga a una SAS de servicio en cuanto a su ámbito y función, pero ofrece ventajas de seguridad con respecto a la SAS de servicio. </t>
+          <t xml:space="preserve">Una SAS de delegación de usuarios está protegida con credenciales de Azure Active Directory (Azure AD) y también con los permisos especificados para la SAS. Una SAS de delegación de usuarios es análoga a una SAS de servicio en cuanto a su ámbito y función, pero ofrece ventajas de seguridad sobre la SAS de servicio. </t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las claves de la cuenta de almacenamiento ('claves compartidas') tienen muy pocas capacidades de auditoría. Si bien se puede monitorear quién o cuándo obtuvo una copia de las claves, una vez que las claves están en manos de varias personas, es imposible atribuir el uso a un usuario específico. Confiar únicamente en la autenticación de ID de Entra facilita la vinculación del acceso al almacenamiento de un usuario. </t>
+          <t xml:space="preserve">Las claves de la cuenta de almacenamiento ('claves compartidas') tienen muy pocas capacidades de auditoría. Si bien se puede monitorear quién o cuándo obtuvo una copia de las claves, una vez que las claves están en manos de varias personas, es imposible atribuir el uso a un usuario específico. Confiar únicamente en la autenticación de ID de Entra facilita la vinculación del acceso al almacenamiento con un usuario. </t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Utilice los datos del registro de actividad para identificar "cuándo", "quién", "qué" y "cómo" se está viendo o cambiando la seguridad de la cuenta de almacenamiento (es decir, claves de cuenta de almacenamiento, directivas de acceso, etcétera).</t>
+          <t>Use los datos del registro de actividad para identificar "cuándo", "quién", "qué" y "cómo" se está viendo o cambiando la seguridad de la cuenta de almacenamiento (es decir, claves de cuenta de almacenamiento, directivas de acceso, etc.).</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Una directiva de expiración de SAS especifica un intervalo recomendado durante el cual la SAS es válida. Las directivas de caducidad de SAS se aplican a una SAS de servicio o a una SAS de cuenta. Cuando un usuario genera una SAS de servicio o una SAS de cuenta con un intervalo de validez mayor que el intervalo recomendado, verá una advertencia.</t>
+          <t>Una directiva de expiración de SAS especifica un intervalo recomendado durante el cual la SAS es válida. Las directivas de expiración de SAS se aplican a una SAS de servicio o a una SA de cuenta. Cuando un usuario genera una SAS de servicio o una SAS de cuenta con un intervalo de validez mayor que el intervalo recomendado, verá una advertencia.</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>Utilice los tiempos de caducidad a corto plazo en una SAS de servicio SAS ad hoc o en una SAS de cuenta. De esta manera, incluso si una SAS se ve comprometida, solo es válida durante un corto período de tiempo. Esta práctica es especialmente importante si no puede hacer referencia a una política de acceso almacenada. Los tiempos de expiración a corto plazo también limitan la cantidad de datos que se pueden escribir en un blob al limitar el tiempo disponible para cargarlos en él.</t>
+          <t>Utilice los tiempos de caducidad a corto plazo en una SAS de servicio de SAS ad hoc o una SAS de cuenta. De esta manera, incluso si una SAS se ve comprometida, solo es válida durante un corto período de tiempo. Esta práctica es especialmente importante si no puede hacer referencia a una política de acceso almacenada. Los tiempos de expiración a corto plazo también limitan la cantidad de datos que se pueden escribir en un blob al limitar el tiempo disponible para cargarlo.</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Al crear una SAS, sea lo más específico y restrictivo posible. Prefiera una SAS para un solo recurso y operación en lugar de una SAS que proporciona un acceso mucho más amplio.</t>
+          <t>Al crear una SAS, sea lo más específico y restrictivo posible. Prefiera una SAS para un solo recurso y operación en lugar de una SAS que brinde un acceso mucho más amplio.</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Una SAS puede incluir parámetros sobre las direcciones IP de cliente o los intervalos de direcciones que están autorizados a solicitar un recurso mediante la SAS. </t>
+          <t xml:space="preserve">Una SAS puede incluir parámetros en los que las direcciones IP de cliente o los intervalos de direcciones están autorizados a solicitar un recurso mediante la SAS. </t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Una SAS no puede restringir la cantidad de datos que carga un cliente; Dado el modelo de precios de la cantidad de almacenamiento a lo largo del tiempo, podría tener sentido validar si los clientes cargaron contenidos malintencionados de gran tamaño.</t>
+          <t>Una SAS no puede restringir la cantidad de datos que carga un cliente; Dado el modelo de precios de la cantidad de almacenamiento a lo largo del tiempo, podría tener sentido validar si los clientes cargaron contenido malintencionado de gran tamaño.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>Al acceder al almacenamiento de blobs a través de SFTP mediante una "cuenta de usuario local", no se aplican los controles RBAC "habituales". El acceso a blobs a través de NFS o REST puede ser más restrictivo que el acceso SFTP. Desafortunadamente, a partir de principios de 2023, los usuarios locales son la única forma de administración de identidades que actualmente es compatible con el punto de conexión SFTP</t>
+          <t>Al acceder al almacenamiento de blobs a través de SFTP mediante una "cuenta de usuario local", no se aplican los controles RBAC "habituales". El acceso a blobs a través de NFS o REST puede ser más restrictivo que el acceso SFTP. Desafortunadamente, a principios de 2023, los usuarios locales son la única forma de administración de identidades que actualmente es compatible con el punto de conexión SFTP</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>El almacenamiento es compatible con CORS (Cross-Origin Resource Sharing), es decir, una función HTTP que permite a las aplicaciones web de un dominio diferente aflojar la política del mismo origen. Al habilitar CORS, mantenga CorsRules con el mínimo privilegio.</t>
+          <t>El almacenamiento es compatible con CORS (Cross-Origin Resource Sharing), es decir, una función HTTP que permite que las aplicaciones web de un dominio diferente relajen la política del mismo origen. Al habilitar CORS, mantenga CorsRules con el privilegio mínimo.</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>Los datos en reposo siempre se cifran en el lado del servidor y, además, también pueden estar cifrados en el lado del cliente. El cifrado del lado del servidor puede producirse mediante una clave administrada por la plataforma (valor predeterminado) o una clave administrada por el cliente. El cifrado del lado cliente puede producirse haciendo que el cliente proporcione una clave de cifrado y descifrado por blob al almacenamiento de Azure o controlando completamente el cifrado en el lado cliente. por lo tanto, no depende en absoluto de Azure Storage para obtener garantías de confidencialidad.</t>
+          <t>Los datos en reposo siempre se cifran en el lado del servidor y, además, también pueden estar cifrados en el lado del cliente. El cifrado del lado del servidor puede realizarse mediante una clave administrada por la plataforma (predeterminada) o una clave administrada por el cliente. El cifrado del lado cliente puede producirse haciendo que el cliente proporcione una clave de cifrado y descifrado por blob al almacenamiento de Azure o controlando completamente el cifrado en el lado cliente. por lo tanto, no depende en absoluto de Azure Storage para obtener garantías de confidencialidad.</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Determine cuál o si se debe utilizar el cifrado de la plataforma.</t>
+          <t>Determine si se debe utilizar el cifrado de la plataforma.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Determine qué cifrado del lado del cliente se debe usar, si se debe usar.</t>
+          <t>Determine si se debe utilizar el cifrado del lado del cliente.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2740,12 +2740,12 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere si es necesario el acceso anónimo de blob público o si se puede deshabilitar para determinadas cuentas de almacenamiento. </t>
+          <t xml:space="preserve">Considere si es necesario el acceso anónimo a blobs públicos o si se puede deshabilitar para determinadas cuentas de almacenamiento. </t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Aproveche el Explorador de Resource Graph (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) para buscar cuentas de almacenamiento que permitan el acceso anónimo a blobs.</t>
+          <t>El acceso anónimo puede presentar un riesgo para la seguridad. Le recomendamos que deshabilite el acceso anónimo para una seguridad óptima. No permitir el acceso anónimo ayuda a evitar filtraciones de datos causadas por el acceso anónimo no deseado.</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Este control aún no se ha examinado</t>
+          <t>Esta comprobación aún no se ha examinado</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -7260,12 +7260,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gobernanza y seguridad</t>
+          <t>Gobernabilidad y seguridad</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendación entendida, pero no necesaria por los requisitos actuales</t>
+          <t>Recomendación comprendida, pero no necesaria por los requisitos actuales</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
